--- a/legislator/property/output/normal/李慶華_2011-11-30_財產申報表_tmp68f81.xlsx
+++ b/legislator/property/output/normal/李慶華_2011-11-30_財產申報表_tmp68f81.xlsx
@@ -9,26 +9,17 @@
   <sheets>
     <sheet name="土地" sheetId="1" r:id="rId1"/>
     <sheet name="建物" sheetId="2" r:id="rId2"/>
-    <sheet name="船舶" sheetId="3" r:id="rId3"/>
-    <sheet name="汽車" sheetId="4" r:id="rId4"/>
-    <sheet name="航空器" sheetId="5" r:id="rId5"/>
-    <sheet name="現金" sheetId="6" r:id="rId6"/>
-    <sheet name="存款" sheetId="7" r:id="rId7"/>
-    <sheet name="股票" sheetId="8" r:id="rId8"/>
-    <sheet name="債券" sheetId="9" r:id="rId9"/>
-    <sheet name="基金受益憑證" sheetId="10" r:id="rId10"/>
-    <sheet name="其他有價證券" sheetId="11" r:id="rId11"/>
-    <sheet name="保險" sheetId="12" r:id="rId12"/>
-    <sheet name="債權" sheetId="13" r:id="rId13"/>
-    <sheet name="債務" sheetId="14" r:id="rId14"/>
-    <sheet name="事業投資" sheetId="15" r:id="rId15"/>
+    <sheet name="汽車" sheetId="3" r:id="rId3"/>
+    <sheet name="存款" sheetId="4" r:id="rId4"/>
+    <sheet name="其他有價證券" sheetId="5" r:id="rId5"/>
+    <sheet name="債務" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="91">
   <si>
     <t>土地坐落</t>
   </si>
@@ -165,66 +156,48 @@
     <t>19,050,_( 與12023-000 建號一併購買 ,共有部分）</t>
   </si>
   <si>
+    <t>廠牌型號</t>
+  </si>
+  <si>
+    <t>汽缸容量</t>
+  </si>
+  <si>
+    <t>所有人</t>
+  </si>
+  <si>
+    <t>登記(取得)時間</t>
+  </si>
+  <si>
+    <t>NISSAN CEFIRO</t>
+  </si>
+  <si>
+    <t>中華 GRUNDER</t>
+  </si>
+  <si>
+    <t>年12月 23白</t>
+  </si>
+  <si>
+    <t>100 年 09 月27曰</t>
+  </si>
+  <si>
+    <t>cca-^s 貝賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>存放機構(應敘明分支機構）</t>
+  </si>
+  <si>
     <t>種類</t>
   </si>
   <si>
-    <t>總啼故'</t>
-  </si>
-  <si>
-    <t>船籍港</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>登記(取得)時間</t>
-  </si>
-  <si>
-    <t>NISSAN CEFIRO</t>
-  </si>
-  <si>
-    <t>中華 GRUNDER</t>
-  </si>
-  <si>
-    <t>年12月 23白</t>
-  </si>
-  <si>
-    <t>100 年 09 月27曰</t>
-  </si>
-  <si>
-    <t>cca-^s 貝賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>型式</t>
-  </si>
-  <si>
-    <t>製造廠名稱</t>
-  </si>
-  <si>
-    <t>國籍標示及編號</t>
-  </si>
-  <si>
     <t>幣別</t>
   </si>
   <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
     <t>新臺幣總額或折合新臺幣總額</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
@@ -252,52 +225,34 @@
     <t>稱</t>
   </si>
   <si>
-    <t>所有</t>
+    <t>所</t>
+  </si>
+  <si>
+    <t>有</t>
   </si>
   <si>
     <t>人</t>
   </si>
   <si>
-    <t>股</t>
-  </si>
-  <si>
-    <t>數</t>
-  </si>
-  <si>
-    <t>票</t>
-  </si>
-  <si>
-    <t>面價額</t>
-  </si>
-  <si>
-    <t>外幣幣別</t>
-  </si>
-  <si>
-    <t>代碼</t>
-  </si>
-  <si>
-    <t>買賣機構</t>
-  </si>
-  <si>
     <t>單位數</t>
   </si>
   <si>
-    <t>票面價額</t>
-  </si>
-  <si>
-    <t>名稱</t>
-  </si>
-  <si>
-    <t>受託投資機樽</t>
-  </si>
-  <si>
-    <t>票面價額(單位淨值）</t>
-  </si>
-  <si>
-    <t>所</t>
-  </si>
-  <si>
-    <t>有</t>
+    <t>(九）珠寶、古董、字畫及多</t>
+  </si>
+  <si>
+    <t>財 產種類</t>
+  </si>
+  <si>
+    <t>-他具有相當價值之財產（總$</t>
+  </si>
+  <si>
+    <t>項 /</t>
+  </si>
+  <si>
+    <t>件</t>
+  </si>
+  <si>
+    <t>1額：新臺幣 元）</t>
   </si>
   <si>
     <t>價</t>
@@ -306,90 +261,24 @@
     <t>額</t>
   </si>
   <si>
-    <t>新臺幣總額或折合新薹幣總額</t>
-  </si>
-  <si>
-    <t>(九）珠寶、古董、字畫及多</t>
-  </si>
-  <si>
-    <t>財 產種類</t>
-  </si>
-  <si>
-    <t>-他具有相當價值之財產（總$</t>
-  </si>
-  <si>
-    <t>項 /</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>1額：新臺幣 元）</t>
-  </si>
-  <si>
-    <t>保險</t>
-  </si>
-  <si>
-    <t>公</t>
-  </si>
-  <si>
-    <t>司</t>
-  </si>
-  <si>
-    <t>保</t>
-  </si>
-  <si>
-    <t>險</t>
-  </si>
-  <si>
-    <t>要</t>
-  </si>
-  <si>
-    <t>備</t>
-  </si>
-  <si>
-    <t>註</t>
-  </si>
-  <si>
     <t>種</t>
   </si>
   <si>
     <t>類</t>
   </si>
   <si>
-    <t>債權人</t>
+    <t>債務人</t>
   </si>
   <si>
     <t>債</t>
   </si>
   <si>
-    <t>務</t>
+    <t>權</t>
   </si>
   <si>
     <t>人及地址</t>
   </si>
   <si>
-    <t>餘</t>
-  </si>
-  <si>
-    <t>取得（發圭）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>權</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生;原因</t>
-  </si>
-  <si>
     <t>房屋貸款</t>
   </si>
   <si>
@@ -403,18 +292,6 @@
   </si>
   <si>
     <t>100年04月 14曰</t>
-  </si>
-  <si>
-    <t>投資人</t>
-  </si>
-  <si>
-    <t>投資事業名稱</t>
-  </si>
-  <si>
-    <t>投資事業地址</t>
-  </si>
-  <si>
-    <t>投資金額</t>
   </si>
 </sst>
 </file>
@@ -963,363 +840,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:8">
-      <c r="B1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1">
-        <v>83</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1">
-        <v>84</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:M1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:13">
-      <c r="B1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:K1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:11">
-      <c r="B1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1">
-        <v>99</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E2" s="2">
-        <v>17150000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1">
-        <v>100</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H10"/>
@@ -1592,13 +1112,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
@@ -1612,13 +1132,56 @@
         <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1995</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>43</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2378</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2">
+        <v>490000</v>
       </c>
     </row>
   </sheetData>
@@ -1627,6 +1190,116 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>58</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2">
+        <v>7032144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>59</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>60</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2">
+        <v>97957</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>61</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2">
+        <v>623009</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -1636,104 +1309,62 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1995</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>57</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2378</v>
+        <v>73</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="2">
-        <v>490000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:8">
-      <c r="B1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>78</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1743,34 +1374,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:5">
-      <c r="B1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1778,193 +1382,68 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
-        <v>7032144</v>
+        <v>88</v>
+      </c>
+      <c r="E2" s="2">
+        <v>17150000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="G3" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>60</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
-        <v>97957</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>61</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
-        <v>623009</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:K1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:11">
-      <c r="B1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:J1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:10">
-      <c r="B1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李慶華_2011-11-30_財產申報表_tmp68f81.xlsx
+++ b/legislator/property/output/normal/李慶華_2011-11-30_財產申報表_tmp68f81.xlsx
@@ -19,9 +19,96 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="91">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="104">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>新北市汐止區社后段社后頂小段01220000地號</t>
+  </si>
+  <si>
+    <t>新北市汐止區社后段社后頂小段03200000地號</t>
+  </si>
+  <si>
+    <t>100000分之137</t>
+  </si>
+  <si>
+    <t>100000分之16</t>
+  </si>
+  <si>
+    <t>100000分之137"</t>
+  </si>
+  <si>
+    <t>李慶華</t>
+  </si>
+  <si>
+    <t>100年02月15曰</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>貝賣</t>
+  </si>
+  <si>
+    <t>rm=r貝賈</t>
+  </si>
+  <si>
+    <t>19050000(與0122000)</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-11-30</t>
+  </si>
+  <si>
+    <t>tmp68f81</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -42,118 +129,70 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>新北市汐止區社后段社后頂小 段0122-0000地號</t>
-  </si>
-  <si>
-    <t>新北市汐止區社后段社后頂小 段0320-0000地號</t>
-  </si>
-  <si>
-    <t>100000 分 之137</t>
-  </si>
-  <si>
-    <t>100000 分 之16</t>
-  </si>
-  <si>
-    <t>100000 分 之 137"</t>
-  </si>
-  <si>
-    <t>李慶華</t>
-  </si>
-  <si>
-    <t>100 年 02 月15曰</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>貝賣</t>
-  </si>
-  <si>
-    <t>rm-^=r 貝賈</t>
-  </si>
-  <si>
-    <t>19,050,000( 與0122-000)</t>
-  </si>
-  <si>
-    <t>19’050,000( 與0122-000)</t>
-  </si>
-  <si>
-    <t>19,050,000( 與 0122-000)</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>權利範圍（持分）'</t>
-  </si>
-  <si>
-    <t>新北市汐止區社后段社后頂小 段12023-000建號</t>
-  </si>
-  <si>
-    <t>新北市汐止區社后段社后頂小 段12619-000建號</t>
-  </si>
-  <si>
-    <t>新北市汐止區社后段社后頂小 段12620-000建號</t>
-  </si>
-  <si>
-    <t>新北市汐止區社后段社后頂小 段12618-000建號</t>
-  </si>
-  <si>
-    <t>新北市汐止區社后段社后頂小 段12617-000建號</t>
+    <t>新北市汐止區社后段社后頂小段12023000建號</t>
+  </si>
+  <si>
+    <t>新北市汐止區社后段社后頂小段12619000建號</t>
+  </si>
+  <si>
+    <t>新北市汐止區社后段社后頂小段12620000建號</t>
+  </si>
+  <si>
+    <t>新北市汐止區社后段社后頂小段12618000建號</t>
+  </si>
+  <si>
+    <t>新北市汐止區社后段社后頂小段12617000建號</t>
   </si>
   <si>
     <t>全部</t>
   </si>
   <si>
-    <t>100000 分 之204</t>
-  </si>
-  <si>
-    <t>100000 分 之280</t>
-  </si>
-  <si>
-    <t>100000 分 之58</t>
-  </si>
-  <si>
-    <t>100000 分 Z 2626</t>
-  </si>
-  <si>
-    <t>100000 分 之0</t>
-  </si>
-  <si>
-    <t>100000 分 之49</t>
-  </si>
-  <si>
-    <t>100000 分 之 3112</t>
+    <t>100000分之204</t>
+  </si>
+  <si>
+    <t>100000分之280</t>
+  </si>
+  <si>
+    <t>100000分之58</t>
+  </si>
+  <si>
+    <t>100000分Z2626</t>
+  </si>
+  <si>
+    <t>100000分之0</t>
+  </si>
+  <si>
+    <t>100000分之49</t>
+  </si>
+  <si>
+    <t>100000分之3112</t>
   </si>
   <si>
     <t>芊慶華</t>
   </si>
   <si>
-    <t>100 年 03 月08曰</t>
-  </si>
-  <si>
-    <t>1,905,000(附 屬建物:陽台 面積 28.-94)</t>
-  </si>
-  <si>
-    <t>1,905,000(與 12023-000建 號一併購買， 共有部分）</t>
-  </si>
-  <si>
-    <t>1，905,000(與 12023-000建 號一併購買， 共有部分）</t>
-  </si>
-  <si>
-    <t>1,905,000(^1 12023-000建 號一併購買， 停車位）</t>
-  </si>
-  <si>
-    <t>1，905，000(與 12023-000 建 號丄併購買， 共有部分）</t>
-  </si>
-  <si>
-    <t>1,905,000(« 與 12023-000隹 號一併購買， 共有部分）</t>
-  </si>
-  <si>
-    <t>1,200’000(停 車位）</t>
-  </si>
-  <si>
-    <t>19,050,_( 與12023-000 建號一併購買 ,共有部分）</t>
+    <t>100年03月08曰</t>
+  </si>
+  <si>
+    <t>1905000(附屬建物:陽台面積28.94)</t>
+  </si>
+  <si>
+    <t>1905000(與12023000建號一併購買共有部分）</t>
+  </si>
+  <si>
+    <t>1905000(112023000建號一併購買停車位）</t>
+  </si>
+  <si>
+    <t>1905000(與12023000建號丄併購買共有部分）</t>
+  </si>
+  <si>
+    <t>1905000(«與12023000隹號一併購買共有部分）</t>
+  </si>
+  <si>
+    <t>1200000(停車位）</t>
+  </si>
+  <si>
+    <t>19050(與12023000建號一併購買共有部分）</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -168,19 +207,19 @@
     <t>登記(取得)時間</t>
   </si>
   <si>
-    <t>NISSAN CEFIRO</t>
-  </si>
-  <si>
-    <t>中華 GRUNDER</t>
-  </si>
-  <si>
-    <t>年12月 23白</t>
-  </si>
-  <si>
-    <t>100 年 09 月27曰</t>
-  </si>
-  <si>
-    <t>cca-^s 貝賣</t>
+    <t>NISSANCEFIRO</t>
+  </si>
+  <si>
+    <t>中華GRUNDER</t>
+  </si>
+  <si>
+    <t>年12月23白</t>
+  </si>
+  <si>
+    <t>100年09月27曰</t>
+  </si>
+  <si>
+    <t>ccas貝賣</t>
   </si>
   <si>
     <t>(超過五年）</t>
@@ -207,7 +246,7 @@
     <t>永豐商業銀行中正分行</t>
   </si>
   <si>
-    <t>台北富邦商業銀行復興分 行</t>
+    <t>台北富邦商業銀行復興分行</t>
   </si>
   <si>
     <t>活期存款</t>
@@ -216,7 +255,7 @@
     <t>新臺幣</t>
   </si>
   <si>
-    <t>2，648,902</t>
+    <t>2648902</t>
   </si>
   <si>
     <t>名</t>
@@ -237,22 +276,22 @@
     <t>單位數</t>
   </si>
   <si>
-    <t>(九）珠寶、古董、字畫及多</t>
-  </si>
-  <si>
-    <t>財 產種類</t>
-  </si>
-  <si>
-    <t>-他具有相當價值之財產（總$</t>
-  </si>
-  <si>
-    <t>項 /</t>
+    <t>(九）珠寶古董字畫及多</t>
+  </si>
+  <si>
+    <t>財產種類</t>
+  </si>
+  <si>
+    <t>他具有相當價值之財產（總$</t>
+  </si>
+  <si>
+    <t>項</t>
   </si>
   <si>
     <t>件</t>
   </si>
   <si>
-    <t>1額：新臺幣 元）</t>
+    <t>1額：新臺幣元）</t>
   </si>
   <si>
     <t>價</t>
@@ -288,10 +327,10 @@
     <t>台新銀行南京東路分行</t>
   </si>
   <si>
-    <t>100年02月 17日</t>
-  </si>
-  <si>
-    <t>100年04月 14曰</t>
+    <t>100年02月17日</t>
+  </si>
+  <si>
+    <t>100年04月14曰</t>
   </si>
 </sst>
 </file>
@@ -650,13 +689,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -678,161 +717,308 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>1760</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H2" s="2">
         <v>19050000</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="2">
+        <v>607</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2">
         <v>1760</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H3" s="2">
         <v>19050000</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="2">
+        <v>607</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2">
         <v>1760</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H4" s="2">
         <v>19050000</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="2">
+        <v>607</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2">
         <v>23425</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="2">
+        <v>607</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2">
         <v>23425</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="2">
+        <v>607</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2">
         <v>23425</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="2">
+        <v>607</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" s="2">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -850,25 +1036,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -876,25 +1062,25 @@
         <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2">
         <v>276.5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -902,25 +1088,25 @@
         <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2">
         <v>6179.44</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -928,25 +1114,25 @@
         <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2">
         <v>3769.14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -954,25 +1140,25 @@
         <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2">
         <v>6357.48</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -980,25 +1166,25 @@
         <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C6" s="2">
         <v>6179.44</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1006,25 +1192,25 @@
         <v>29</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2">
         <v>3769.14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1032,25 +1218,25 @@
         <v>30</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2">
         <v>7533.95</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1058,25 +1244,25 @@
         <v>31</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C9" s="2">
         <v>6179.44</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1084,25 +1270,25 @@
         <v>32</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C10" s="2">
         <v>3769.14</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1120,22 +1306,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1143,22 +1329,22 @@
         <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2">
         <v>1995</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1166,19 +1352,19 @@
         <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2">
         <v>2378</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2">
         <v>490000</v>
@@ -1199,19 +1385,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1219,16 +1405,16 @@
         <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2">
         <v>7032144</v>
@@ -1239,19 +1425,19 @@
         <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1259,16 +1445,16 @@
         <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2">
         <v>97957</v>
@@ -1279,16 +1465,16 @@
         <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F5" s="2">
         <v>623009</v>
@@ -1309,22 +1495,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1332,14 +1518,14 @@
         <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1349,22 +1535,22 @@
         <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1382,22 +1568,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1405,22 +1591,22 @@
         <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="E2" s="2">
         <v>17150000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1428,22 +1614,22 @@
         <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="E3" s="2">
         <v>1000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李慶華_2011-11-30_財產申報表_tmp68f81.xlsx
+++ b/legislator/property/output/normal/李慶華_2011-11-30_財產申報表_tmp68f81.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="79">
   <si>
     <t>name</t>
   </si>
@@ -63,15 +63,18 @@
     <t>index</t>
   </si>
   <si>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
     <t>新北市汐止區社后段社后頂小段01220000地號</t>
   </si>
   <si>
     <t>新北市汐止區社后段社后頂小段03200000地號</t>
   </si>
   <si>
-    <t>100000分之137</t>
-  </si>
-  <si>
     <t>100000分之16</t>
   </si>
   <si>
@@ -84,12 +87,12 @@
     <t>100年02月15曰</t>
   </si>
   <si>
+    <t>貝賣</t>
+  </si>
+  <si>
     <t>買賣</t>
   </si>
   <si>
-    <t>貝賣</t>
-  </si>
-  <si>
     <t>rm=r貝賈</t>
   </si>
   <si>
@@ -108,30 +111,15 @@
     <t>tmp68f81</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍（持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得)時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>新北市汐止區社后段社后頂小段12023000建號</t>
   </si>
   <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>1905000(附屬建物:陽台面積28.94)</t>
+  </si>
+  <si>
     <t>新北市汐止區社后段社后頂小段12619000建號</t>
   </si>
   <si>
@@ -144,9 +132,6 @@
     <t>新北市汐止區社后段社后頂小段12617000建號</t>
   </si>
   <si>
-    <t>全部</t>
-  </si>
-  <si>
     <t>100000分之204</t>
   </si>
   <si>
@@ -174,9 +159,6 @@
     <t>100年03月08曰</t>
   </si>
   <si>
-    <t>1905000(附屬建物:陽台面積28.94)</t>
-  </si>
-  <si>
     <t>1905000(與12023000建號一併購買共有部分）</t>
   </si>
   <si>
@@ -195,139 +177,82 @@
     <t>19050(與12023000建號一併購買共有部分）</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
+    <t>NISSANCEFIRO</t>
+  </si>
+  <si>
+    <t>年12月23白</t>
+  </si>
+  <si>
+    <t>ccas貝賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>中華GRUNDER</t>
+  </si>
+  <si>
+    <t>100年09月27曰</t>
+  </si>
+  <si>
+    <t>臺灣銀行群賢分行</t>
+  </si>
+  <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
+    <t>臺灣銀行汐止分行</t>
+  </si>
+  <si>
+    <t>永豐商業銀行中正分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行復興分行</t>
+  </si>
+  <si>
+    <t>2648902</t>
+  </si>
+  <si>
+    <t>(九）珠寶古董字畫及多</t>
+  </si>
+  <si>
+    <t>他具有相當價值之財產（總$</t>
+  </si>
+  <si>
+    <t>1額：新臺幣元）</t>
+  </si>
+  <si>
+    <t>財產種類</t>
+  </si>
+  <si>
+    <t>項</t>
+  </si>
+  <si>
+    <t>件</t>
+  </si>
+  <si>
+    <t>價</t>
+  </si>
+  <si>
+    <t>額</t>
   </si>
   <si>
     <t>所有人</t>
   </si>
   <si>
-    <t>登記(取得)時間</t>
-  </si>
-  <si>
-    <t>NISSANCEFIRO</t>
-  </si>
-  <si>
-    <t>中華GRUNDER</t>
-  </si>
-  <si>
-    <t>年12月23白</t>
-  </si>
-  <si>
-    <t>100年09月27曰</t>
-  </si>
-  <si>
-    <t>ccas貝賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
-    <t>臺灣銀行群賢分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行汐止分行</t>
-  </si>
-  <si>
-    <t>永豐商業銀行中正分行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行復興分行</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
-    <t>2648902</t>
-  </si>
-  <si>
-    <t>名</t>
-  </si>
-  <si>
-    <t>稱</t>
-  </si>
-  <si>
-    <t>所</t>
-  </si>
-  <si>
-    <t>有</t>
-  </si>
-  <si>
-    <t>人</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>(九）珠寶古董字畫及多</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總$</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>1額：新臺幣元）</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>種</t>
-  </si>
-  <si>
-    <t>類</t>
-  </si>
-  <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債</t>
-  </si>
-  <si>
-    <t>權</t>
-  </si>
-  <si>
-    <t>人及地址</t>
-  </si>
-  <si>
     <t>房屋貸款</t>
   </si>
   <si>
+    <t>台新銀行南京東路分行</t>
+  </si>
+  <si>
+    <t>100年02月17日</t>
+  </si>
+  <si>
     <t>房屋貸款(車位）</t>
-  </si>
-  <si>
-    <t>台新銀行南京東路分行</t>
-  </si>
-  <si>
-    <t>100年02月17日</t>
   </si>
   <si>
     <t>100年04月14曰</t>
@@ -689,13 +614,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -738,154 +663,178 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
         <v>1760</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2" s="2">
         <v>19050000</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M2" s="2">
         <v>607</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O2" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.00016</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.2816</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2">
         <v>1760</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3" s="2">
         <v>19050000</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M3" s="2">
         <v>607</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.00016</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.2816</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2">
+        <v>23425</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1">
-        <v>15</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1760</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="2">
-        <v>19050000</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="L4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M4" s="2">
         <v>607</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O4" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.00137</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>32.09225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>23425</v>
@@ -894,131 +843,96 @@
         <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M5" s="2">
         <v>607</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O5" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.00016</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>3.748</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="C6" s="2">
         <v>23425</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M6" s="2">
         <v>607</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O6" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1">
         <v>18</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2">
-        <v>23425</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="2">
-        <v>607</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O7" s="2">
-        <v>18</v>
+      <c r="P6" s="2">
+        <v>0.00016</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>3.748</v>
       </c>
     </row>
   </sheetData>
@@ -1028,7 +942,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1036,259 +950,233 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="C1" s="1">
+        <v>276.5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="2">
+        <v>6179.44</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="2">
-        <v>276.5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2">
-        <v>6179.44</v>
+        <v>3769.14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2">
-        <v>3769.14</v>
+        <v>6357.48</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2">
-        <v>6357.48</v>
+        <v>6179.44</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2">
-        <v>6179.44</v>
+        <v>3769.14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2">
-        <v>3769.14</v>
+        <v>7533.95</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2">
-        <v>7533.95</v>
+        <v>6179.44</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C9" s="2">
-        <v>6179.44</v>
+        <v>3769.14</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>32</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="2">
-        <v>3769.14</v>
-      </c>
-      <c r="D10" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1298,7 +1186,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1306,67 +1194,44 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1995</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2">
-        <v>1995</v>
+        <v>2378</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>43</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2378</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="2">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2">
         <v>490000</v>
       </c>
     </row>
@@ -1377,7 +1242,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1385,98 +1250,78 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>20</v>
+      </c>
+      <c r="F1" s="1">
+        <v>7032144</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="2">
-        <v>7032144</v>
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>78</v>
+        <v>20</v>
+      </c>
+      <c r="F3" s="2">
+        <v>97957</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
+        <v>61</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2">
-        <v>97957</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>61</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="2">
         <v>623009</v>
       </c>
     </row>
@@ -1487,7 +1332,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1495,62 +1340,39 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>81</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>84</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="E2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>84</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>92</v>
+        <v>71</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1560,7 +1382,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1568,68 +1390,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>75</v>
+      </c>
+      <c r="E1" s="1">
+        <v>17150000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2">
-        <v>17150000</v>
+        <v>1000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>100</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李慶華_2011-11-30_財產申報表_tmp68f81.xlsx
+++ b/legislator/property/output/normal/李慶華_2011-11-30_財產申報表_tmp68f81.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="80">
   <si>
     <t>name</t>
   </si>
@@ -75,6 +75,9 @@
     <t>新北市汐止區社后段社后頂小段03200000地號</t>
   </si>
   <si>
+    <t>100000分之137</t>
+  </si>
+  <si>
     <t>100000分之16</t>
   </si>
   <si>
@@ -87,12 +90,12 @@
     <t>100年02月15曰</t>
   </si>
   <si>
+    <t>買賣</t>
+  </si>
+  <si>
     <t>貝賣</t>
   </si>
   <si>
-    <t>買賣</t>
-  </si>
-  <si>
     <t>rm=r貝賈</t>
   </si>
   <si>
@@ -114,49 +117,49 @@
     <t>新北市汐止區社后段社后頂小段12023000建號</t>
   </si>
   <si>
+    <t>新北市汐止區社后段社后頂小段12619000建號</t>
+  </si>
+  <si>
+    <t>新北市汐止區社后段社后頂小段12620000建號</t>
+  </si>
+  <si>
+    <t>新北市汐止區社后段社后頂小段12618000建號</t>
+  </si>
+  <si>
+    <t>新北市汐止區社后段社后頂小段12617000建號</t>
+  </si>
+  <si>
     <t>全部</t>
   </si>
   <si>
+    <t>100000分之204</t>
+  </si>
+  <si>
+    <t>100000分之280</t>
+  </si>
+  <si>
+    <t>100000分之58</t>
+  </si>
+  <si>
+    <t>100000分Z2626</t>
+  </si>
+  <si>
+    <t>100000分之0</t>
+  </si>
+  <si>
+    <t>100000分之49</t>
+  </si>
+  <si>
+    <t>100000分之3112</t>
+  </si>
+  <si>
+    <t>芊慶華</t>
+  </si>
+  <si>
+    <t>100年03月08曰</t>
+  </si>
+  <si>
     <t>1905000(附屬建物:陽台面積28.94)</t>
-  </si>
-  <si>
-    <t>新北市汐止區社后段社后頂小段12619000建號</t>
-  </si>
-  <si>
-    <t>新北市汐止區社后段社后頂小段12620000建號</t>
-  </si>
-  <si>
-    <t>新北市汐止區社后段社后頂小段12618000建號</t>
-  </si>
-  <si>
-    <t>新北市汐止區社后段社后頂小段12617000建號</t>
-  </si>
-  <si>
-    <t>100000分之204</t>
-  </si>
-  <si>
-    <t>100000分之280</t>
-  </si>
-  <si>
-    <t>100000分之58</t>
-  </si>
-  <si>
-    <t>100000分Z2626</t>
-  </si>
-  <si>
-    <t>100000分之0</t>
-  </si>
-  <si>
-    <t>100000分之49</t>
-  </si>
-  <si>
-    <t>100000分之3112</t>
-  </si>
-  <si>
-    <t>芊慶華</t>
-  </si>
-  <si>
-    <t>100年03月08曰</t>
   </si>
   <si>
     <t>1905000(與12023000建號一併購買共有部分）</t>
@@ -614,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -672,7 +675,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
@@ -684,48 +687,48 @@
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" s="2">
         <v>19050000</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M2" s="2">
         <v>607</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P2" s="2">
-        <v>0.00016</v>
+        <v>0.00137</v>
       </c>
       <c r="Q2" s="2">
-        <v>0.2816</v>
+        <v>2.4112</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>16</v>
@@ -734,40 +737,40 @@
         <v>1760</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" s="2">
         <v>19050000</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M3" s="2">
         <v>607</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P3" s="2">
         <v>0.00016</v>
@@ -778,60 +781,60 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="C4" s="2">
-        <v>23425</v>
+        <v>1760</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>25</v>
+      <c r="H4" s="2">
+        <v>19050000</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M4" s="2">
         <v>607</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P4" s="2">
-        <v>0.00137</v>
+        <v>0.00016</v>
       </c>
       <c r="Q4" s="2">
-        <v>32.09225</v>
+        <v>0.2816</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>17</v>
@@ -840,51 +843,51 @@
         <v>23425</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M5" s="2">
         <v>607</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P5" s="2">
-        <v>0.00016</v>
+        <v>0.00137</v>
       </c>
       <c r="Q5" s="2">
-        <v>3.748</v>
+        <v>32.09225</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>17</v>
@@ -893,45 +896,98 @@
         <v>23425</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M6" s="2">
         <v>607</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O6" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P6" s="2">
         <v>0.00016</v>
       </c>
       <c r="Q6" s="2">
+        <v>3.748</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2">
+        <v>23425</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="2">
+        <v>607</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="2">
+        <v>18</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.00016</v>
+      </c>
+      <c r="Q7" s="2">
         <v>3.748</v>
       </c>
     </row>
@@ -942,105 +998,186 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2">
         <v>276.5</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
+      <c r="G2" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="2">
-        <v>6179.44</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="2">
+        <v>607</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="2">
+        <v>23</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>276.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2">
-        <v>3769.14</v>
+        <v>6179.44</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="2">
+        <v>607</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="2">
+        <v>24</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.00204</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>12.6060576</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2">
-        <v>6357.48</v>
+        <v>3769.14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>23</v>
@@ -1048,25 +1185,52 @@
       <c r="H4" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="2">
+        <v>607</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="2">
+        <v>25</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.0028</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>10.553592</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" s="2">
-        <v>6179.44</v>
+        <v>6357.48</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>23</v>
@@ -1074,109 +1238,297 @@
       <c r="H5" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="2">
+        <v>607</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="2">
+        <v>27</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.00058</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>3.6873384</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2">
-        <v>3769.14</v>
+        <v>6179.44</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="2">
+        <v>607</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" s="2">
+        <v>28</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.02626</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>162.2720944</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2">
-        <v>7533.95</v>
+        <v>3769.14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="2">
+        <v>607</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="2">
+        <v>29</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C8" s="2">
-        <v>6179.44</v>
+        <v>7533.95</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="2">
+        <v>607</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="2">
+        <v>30</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.00049</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>3.6916355</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
+        <v>31</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C9" s="2">
-        <v>3769.14</v>
+        <v>6179.44</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="2">
+        <v>607</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" s="2">
+        <v>31</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.03112</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>192.3041728</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="1">
+        <v>32</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3769.14</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>46</v>
+      <c r="H10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="2">
+        <v>607</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O10" s="2">
+        <v>32</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1186,7 +1538,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1194,44 +1546,67 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1">
         <v>1995</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1995</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>43</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="2">
         <v>2378</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G3" s="2">
         <v>490000</v>
       </c>
     </row>
@@ -1242,7 +1617,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1250,16 +1625,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1">
         <v>7032144</v>
@@ -1267,61 +1642,81 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
+        <v>58</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>64</v>
+        <v>21</v>
+      </c>
+      <c r="F2" s="2">
+        <v>7032144</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="2">
-        <v>97957</v>
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="2">
+        <v>97957</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>61</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="D5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="2">
         <v>623009</v>
       </c>
     </row>
@@ -1332,7 +1727,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1340,39 +1735,56 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
+        <v>83</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>84</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>73</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1382,7 +1794,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1390,19 +1802,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1">
         <v>17150000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>23</v>
@@ -1410,24 +1822,47 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
+        <v>99</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="2">
+        <v>17150000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>100</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="B3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="2">
         <v>1000000</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>23</v>
       </c>
     </row>

--- a/legislator/property/output/normal/李慶華_2011-11-30_財產申報表_tmp68f81.xlsx
+++ b/legislator/property/output/normal/李慶華_2011-11-30_財產申報表_tmp68f81.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="81">
   <si>
     <t>name</t>
   </si>
@@ -180,22 +180,25 @@
     <t>19050(與12023000建號一併購買共有部分）</t>
   </si>
   <si>
+    <t>capacity</t>
+  </si>
+  <si>
     <t>NISSANCEFIRO</t>
   </si>
   <si>
+    <t>中華GRUNDER</t>
+  </si>
+  <si>
     <t>年12月23白</t>
   </si>
   <si>
+    <t>100年09月27曰</t>
+  </si>
+  <si>
     <t>ccas貝賣</t>
   </si>
   <si>
     <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>中華GRUNDER</t>
-  </si>
-  <si>
-    <t>100年09月27曰</t>
   </si>
   <si>
     <t>臺灣銀行群賢分行</t>
@@ -1538,38 +1541,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="1">
-        <v>1995</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2">
         <v>1995</v>
@@ -1578,21 +1602,42 @@
         <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>59</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="2">
+        <v>607</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2">
         <v>2378</v>
@@ -1601,13 +1646,34 @@
         <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G3" s="2">
         <v>490000</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="2">
+        <v>607</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="2">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1625,13 +1691,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>21</v>
@@ -1645,13 +1711,13 @@
         <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>21</v>
@@ -1665,19 +1731,19 @@
         <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1685,13 +1751,13 @@
         <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>21</v>
@@ -1705,13 +1771,13 @@
         <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>21</v>
@@ -1735,14 +1801,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1752,16 +1818,16 @@
         <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1769,22 +1835,22 @@
         <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1802,19 +1868,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1">
         <v>17150000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>23</v>
@@ -1825,19 +1891,19 @@
         <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2">
         <v>17150000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>23</v>
@@ -1848,19 +1914,19 @@
         <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2">
         <v>1000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>23</v>

--- a/legislator/property/output/normal/李慶華_2011-11-30_財產申報表_tmp68f81.xlsx
+++ b/legislator/property/output/normal/李慶華_2011-11-30_財產申報表_tmp68f81.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="83">
   <si>
     <t>name</t>
   </si>
@@ -180,6 +180,9 @@
     <t>19050(與12023000建號一併購買共有部分）</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -199,6 +202,9 @@
   </si>
   <si>
     <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>臺灣銀行群賢分行</t>
@@ -1083,7 +1089,7 @@
         <v>46</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>28</v>
@@ -1136,7 +1142,7 @@
         <v>47</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>28</v>
@@ -1189,7 +1195,7 @@
         <v>47</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>28</v>
@@ -1242,7 +1248,7 @@
         <v>48</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>28</v>
@@ -1295,7 +1301,7 @@
         <v>49</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>28</v>
@@ -1348,7 +1354,7 @@
         <v>50</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>28</v>
@@ -1401,7 +1407,7 @@
         <v>51</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>28</v>
@@ -1454,7 +1460,7 @@
         <v>52</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>28</v>
@@ -1507,7 +1513,7 @@
         <v>47</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>28</v>
@@ -1552,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1593,7 +1599,7 @@
         <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2">
         <v>1995</v>
@@ -1602,16 +1608,16 @@
         <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>28</v>
@@ -1637,7 +1643,7 @@
         <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2">
         <v>2378</v>
@@ -1646,7 +1652,7 @@
         <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>23</v>
@@ -1655,7 +1661,7 @@
         <v>490000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>28</v>
@@ -1691,13 +1697,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>21</v>
@@ -1711,13 +1717,13 @@
         <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>21</v>
@@ -1731,19 +1737,19 @@
         <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1751,13 +1757,13 @@
         <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>21</v>
@@ -1771,13 +1777,13 @@
         <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>21</v>
@@ -1801,14 +1807,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1818,16 +1824,16 @@
         <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1835,22 +1841,22 @@
         <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1868,19 +1874,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1">
         <v>17150000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>23</v>
@@ -1891,19 +1897,19 @@
         <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2">
         <v>17150000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>23</v>
@@ -1914,19 +1920,19 @@
         <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="E3" s="2">
         <v>1000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>23</v>

--- a/legislator/property/output/normal/李慶華_2011-11-30_財產申報表_tmp68f81.xlsx
+++ b/legislator/property/output/normal/李慶華_2011-11-30_財產申報表_tmp68f81.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="86">
   <si>
     <t>name</t>
   </si>
@@ -207,25 +207,34 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
+    <t>臺灣銀行汐止分行</t>
+  </si>
+  <si>
+    <t>永豐商業銀行中正分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行復興分行</t>
+  </si>
+  <si>
     <t>活期存款</t>
   </si>
   <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>臺灣銀行汐止分行</t>
-  </si>
-  <si>
-    <t>永豐商業銀行中正分行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行復興分行</t>
-  </si>
-  <si>
-    <t>2648902</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>(九）珠寶古董字畫及多</t>
@@ -1689,13 +1698,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>62</v>
       </c>
@@ -1706,24 +1715,45 @@
         <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1">
-        <v>7032144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>21</v>
@@ -1731,39 +1761,81 @@
       <c r="F2" s="2">
         <v>7032144</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="2">
+        <v>607</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="F3" s="2">
+        <v>2648902</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="2">
+        <v>607</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>21</v>
@@ -1771,25 +1843,67 @@
       <c r="F4" s="2">
         <v>97957</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="2">
+        <v>607</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="2">
         <v>623009</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="2">
+        <v>607</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="2">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1807,14 +1921,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1824,16 +1938,16 @@
         <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1841,22 +1955,22 @@
         <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1874,19 +1988,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1">
         <v>17150000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>23</v>
@@ -1897,19 +2011,19 @@
         <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E2" s="2">
         <v>17150000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>23</v>
@@ -1920,19 +2034,19 @@
         <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E3" s="2">
         <v>1000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>23</v>

--- a/legislator/property/output/normal/李慶華_2011-11-30_財產申報表_tmp68f81.xlsx
+++ b/legislator/property/output/normal/李慶華_2011-11-30_財產申報表_tmp68f81.xlsx
@@ -11,15 +11,14 @@
     <sheet name="建物" sheetId="2" r:id="rId2"/>
     <sheet name="汽車" sheetId="3" r:id="rId3"/>
     <sheet name="存款" sheetId="4" r:id="rId4"/>
-    <sheet name="其他有價證券" sheetId="5" r:id="rId5"/>
-    <sheet name="債務" sheetId="6" r:id="rId6"/>
+    <sheet name="債務" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="77">
   <si>
     <t>name</t>
   </si>
@@ -235,33 +234,6 @@
   </si>
   <si>
     <t>deposit</t>
-  </si>
-  <si>
-    <t>(九）珠寶古董字畫及多</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總$</t>
-  </si>
-  <si>
-    <t>1額：新臺幣元）</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>所有人</t>
   </si>
   <si>
     <t>房屋貸款</t>
@@ -1924,83 +1896,16 @@
         <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>83</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>84</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="E1" s="1">
         <v>17150000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>23</v>
@@ -2011,19 +1916,19 @@
         <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E2" s="2">
         <v>17150000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>23</v>
@@ -2034,19 +1939,19 @@
         <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E3" s="2">
         <v>1000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>23</v>

--- a/legislator/property/output/normal/李慶華_2011-11-30_財產申報表_tmp68f81.xlsx
+++ b/legislator/property/output/normal/李慶華_2011-11-30_財產申報表_tmp68f81.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="80">
   <si>
     <t>name</t>
   </si>
@@ -236,19 +236,28 @@
     <t>deposit</t>
   </si>
   <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>房屋貸款</t>
   </si>
   <si>
+    <t>房屋貸款(車位）</t>
+  </si>
+  <si>
     <t>台新銀行南京東路分行</t>
   </si>
   <si>
     <t>100年02月17日</t>
   </si>
   <si>
-    <t>房屋貸款(車位）</t>
-  </si>
-  <si>
     <t>100年04月14曰</t>
+  </si>
+  <si>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -1885,56 +1894,98 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="1">
-        <v>17150000</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2">
         <v>17150000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="2">
+        <v>607</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>100</v>
       </c>
@@ -1945,16 +1996,37 @@
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2">
         <v>1000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>23</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="2">
+        <v>607</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="2">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
